--- a/relatorios/repasses_liberados/dentistas/00930522435/2023-08-25_relatorio_repasses_00930522435.xlsx
+++ b/relatorios/repasses_liberados/dentistas/00930522435/2023-08-25_relatorio_repasses_00930522435.xlsx
@@ -8085,7 +8085,7 @@
         <v>0</v>
       </c>
       <c r="M162">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N162">
         <v>0</v>
@@ -8437,7 +8437,7 @@
         <v>0</v>
       </c>
       <c r="M170">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N170">
         <v>0</v>
@@ -8965,7 +8965,7 @@
         <v>0</v>
       </c>
       <c r="M182">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N182">
         <v>0</v>
@@ -9053,7 +9053,7 @@
         <v>0</v>
       </c>
       <c r="M184">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N184">
         <v>0</v>
@@ -9141,7 +9141,7 @@
         <v>0</v>
       </c>
       <c r="M186">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N186">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>0</v>
       </c>
       <c r="M187">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="N187">
         <v>0</v>
@@ -9581,7 +9581,7 @@
         <v>0</v>
       </c>
       <c r="M196">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N196">
         <v>0</v>
@@ -10593,7 +10593,7 @@
         <v>0</v>
       </c>
       <c r="M219">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N219">
         <v>0</v>
@@ -10637,7 +10637,7 @@
         <v>0</v>
       </c>
       <c r="M220">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N220">
         <v>0</v>
@@ -12573,7 +12573,7 @@
         <v>0</v>
       </c>
       <c r="M264">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="N264">
         <v>0</v>
@@ -12969,7 +12969,7 @@
         <v>0</v>
       </c>
       <c r="M273">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N273">
         <v>0</v>
@@ -13013,7 +13013,7 @@
         <v>0</v>
       </c>
       <c r="M274">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N274">
         <v>0</v>
@@ -13541,7 +13541,7 @@
         <v>0</v>
       </c>
       <c r="M286">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N286">
         <v>0</v>
@@ -13629,7 +13629,7 @@
         <v>0</v>
       </c>
       <c r="M288">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N288">
         <v>0</v>
@@ -13673,7 +13673,7 @@
         <v>0</v>
       </c>
       <c r="M289">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N289">
         <v>0</v>
@@ -13981,7 +13981,7 @@
         <v>0</v>
       </c>
       <c r="M296">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="N296">
         <v>0</v>
@@ -14025,7 +14025,7 @@
         <v>0</v>
       </c>
       <c r="M297">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N297">
         <v>0</v>
@@ -15389,7 +15389,7 @@
         <v>0</v>
       </c>
       <c r="M328">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N328">
         <v>0</v>
@@ -15521,7 +15521,7 @@
         <v>0</v>
       </c>
       <c r="M331">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N331">
         <v>0</v>

--- a/relatorios/repasses_liberados/dentistas/00930522435/2023-08-25_relatorio_repasses_00930522435.xlsx
+++ b/relatorios/repasses_liberados/dentistas/00930522435/2023-08-25_relatorio_repasses_00930522435.xlsx
@@ -3113,10 +3113,10 @@
         <v>0</v>
       </c>
       <c r="M49">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N49">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="50" spans="1:14">
@@ -3817,10 +3817,10 @@
         <v>0</v>
       </c>
       <c r="M65">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N65">
-        <v>7.96</v>
+        <v>5.97</v>
       </c>
     </row>
     <row r="66" spans="1:14">
@@ -4037,10 +4037,10 @@
         <v>0</v>
       </c>
       <c r="M70">
-        <v>0.4</v>
+        <v>65</v>
       </c>
       <c r="N70">
-        <v>4</v>
+        <v>65</v>
       </c>
     </row>
     <row r="71" spans="1:14">
@@ -4081,10 +4081,10 @@
         <v>0</v>
       </c>
       <c r="M71">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="N71">
-        <v>12.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:14">
@@ -4125,10 +4125,10 @@
         <v>0</v>
       </c>
       <c r="M72">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N72">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="73" spans="1:14">
@@ -4213,10 +4213,10 @@
         <v>0</v>
       </c>
       <c r="M74">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N74">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="75" spans="1:14">
@@ -4257,10 +4257,10 @@
         <v>0</v>
       </c>
       <c r="M75">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N75">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="76" spans="1:14">
@@ -4433,10 +4433,10 @@
         <v>0</v>
       </c>
       <c r="M79">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N79">
-        <v>12.8</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="80" spans="1:14">
@@ -4477,10 +4477,10 @@
         <v>0</v>
       </c>
       <c r="M80">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N80">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="81" spans="1:14">
@@ -4521,10 +4521,10 @@
         <v>0</v>
       </c>
       <c r="M81">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N81">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="82" spans="1:14">
@@ -4565,10 +4565,10 @@
         <v>0</v>
       </c>
       <c r="M82">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N82">
-        <v>12.8</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="83" spans="1:14">
@@ -4609,10 +4609,10 @@
         <v>0</v>
       </c>
       <c r="M83">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N83">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="84" spans="1:14">
@@ -4653,10 +4653,10 @@
         <v>0</v>
       </c>
       <c r="M84">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N84">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="85" spans="1:14">
@@ -4697,10 +4697,10 @@
         <v>0</v>
       </c>
       <c r="M85">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N85">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="86" spans="1:14">
@@ -4741,10 +4741,10 @@
         <v>0</v>
       </c>
       <c r="M86">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N86">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="87" spans="1:14">
@@ -4785,10 +4785,10 @@
         <v>0</v>
       </c>
       <c r="M87">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N87">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="88" spans="1:14">
@@ -4829,10 +4829,10 @@
         <v>0</v>
       </c>
       <c r="M88">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N88">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="89" spans="1:14">
@@ -4917,10 +4917,10 @@
         <v>0</v>
       </c>
       <c r="M90">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N90">
-        <v>12.8</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="91" spans="1:14">
@@ -5049,10 +5049,10 @@
         <v>0</v>
       </c>
       <c r="M93">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N93">
-        <v>2.14</v>
+        <v>1.605</v>
       </c>
     </row>
     <row r="94" spans="1:14">
@@ -5093,10 +5093,10 @@
         <v>0</v>
       </c>
       <c r="M94">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N94">
-        <v>2.14</v>
+        <v>1.605</v>
       </c>
     </row>
     <row r="95" spans="1:14">
@@ -5137,10 +5137,10 @@
         <v>0</v>
       </c>
       <c r="M95">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N95">
-        <v>2.14</v>
+        <v>1.605</v>
       </c>
     </row>
     <row r="96" spans="1:14">
@@ -5181,10 +5181,10 @@
         <v>0</v>
       </c>
       <c r="M96">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N96">
-        <v>38.544</v>
+        <v>28.908</v>
       </c>
     </row>
     <row r="97" spans="1:14">
@@ -5225,10 +5225,10 @@
         <v>0</v>
       </c>
       <c r="M97">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N97">
-        <v>7.96</v>
+        <v>5.97</v>
       </c>
     </row>
     <row r="98" spans="1:14">
@@ -5269,10 +5269,10 @@
         <v>0</v>
       </c>
       <c r="M98">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N98">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="99" spans="1:14">
@@ -5313,10 +5313,10 @@
         <v>0</v>
       </c>
       <c r="M99">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N99">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="100" spans="1:14">
@@ -5357,10 +5357,10 @@
         <v>0</v>
       </c>
       <c r="M100">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N100">
-        <v>12.8</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="101" spans="1:14">
@@ -5401,10 +5401,10 @@
         <v>0</v>
       </c>
       <c r="M101">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N101">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="102" spans="1:14">
@@ -5445,10 +5445,10 @@
         <v>0</v>
       </c>
       <c r="M102">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N102">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="103" spans="1:14">
@@ -5489,10 +5489,10 @@
         <v>0</v>
       </c>
       <c r="M103">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N103">
-        <v>12.8</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="104" spans="1:14">
@@ -5577,10 +5577,10 @@
         <v>0</v>
       </c>
       <c r="M105">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N105">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="106" spans="1:14">
@@ -5621,10 +5621,10 @@
         <v>0</v>
       </c>
       <c r="M106">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N106">
-        <v>10.692</v>
+        <v>8.019</v>
       </c>
     </row>
     <row r="107" spans="1:14">
@@ -5665,10 +5665,10 @@
         <v>0</v>
       </c>
       <c r="M107">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N107">
-        <v>35.644</v>
+        <v>26.733</v>
       </c>
     </row>
     <row r="108" spans="1:14">
@@ -5709,10 +5709,10 @@
         <v>0</v>
       </c>
       <c r="M108">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N108">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="109" spans="1:14">
@@ -5753,10 +5753,10 @@
         <v>0</v>
       </c>
       <c r="M109">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N109">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="110" spans="1:14">
@@ -5929,10 +5929,10 @@
         <v>0</v>
       </c>
       <c r="M113">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N113">
-        <v>13.948</v>
+        <v>10.461</v>
       </c>
     </row>
     <row r="114" spans="1:14">
@@ -5973,10 +5973,10 @@
         <v>0</v>
       </c>
       <c r="M114">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N114">
-        <v>13.948</v>
+        <v>10.461</v>
       </c>
     </row>
     <row r="115" spans="1:14">
@@ -6017,10 +6017,10 @@
         <v>0</v>
       </c>
       <c r="M115">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N115">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="116" spans="1:14">
@@ -6061,10 +6061,10 @@
         <v>0</v>
       </c>
       <c r="M116">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="N116">
-        <v>48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:14">
@@ -6105,10 +6105,10 @@
         <v>0</v>
       </c>
       <c r="M117">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="N117">
-        <v>16.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:14">
@@ -6149,10 +6149,10 @@
         <v>0</v>
       </c>
       <c r="M118">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N118">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="119" spans="1:14">
@@ -6193,10 +6193,10 @@
         <v>0</v>
       </c>
       <c r="M119">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N119">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="120" spans="1:14">
@@ -6281,10 +6281,10 @@
         <v>0</v>
       </c>
       <c r="M121">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N121">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="122" spans="1:14">
@@ -6325,10 +6325,10 @@
         <v>0</v>
       </c>
       <c r="M122">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N122">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="123" spans="1:14">
@@ -6369,10 +6369,10 @@
         <v>0</v>
       </c>
       <c r="M123">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N123">
-        <v>12.8</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="124" spans="1:14">
@@ -6413,10 +6413,10 @@
         <v>0</v>
       </c>
       <c r="M124">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N124">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="125" spans="1:14">
@@ -6457,10 +6457,10 @@
         <v>0</v>
       </c>
       <c r="M125">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N125">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="126" spans="1:14">
@@ -6501,10 +6501,10 @@
         <v>0</v>
       </c>
       <c r="M126">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N126">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="127" spans="1:14">
@@ -6545,10 +6545,10 @@
         <v>0</v>
       </c>
       <c r="M127">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N127">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="128" spans="1:14">
@@ -6589,10 +6589,10 @@
         <v>0</v>
       </c>
       <c r="M128">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N128">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="129" spans="1:14">
@@ -6633,10 +6633,10 @@
         <v>0</v>
       </c>
       <c r="M129">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N129">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="130" spans="1:14">
@@ -6677,10 +6677,10 @@
         <v>0</v>
       </c>
       <c r="M130">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N130">
-        <v>12.8</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="131" spans="1:14">
@@ -6721,10 +6721,10 @@
         <v>0</v>
       </c>
       <c r="M131">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N131">
-        <v>12.8</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="132" spans="1:14">
@@ -6765,10 +6765,10 @@
         <v>0</v>
       </c>
       <c r="M132">
-        <v>0.4</v>
+        <v>65</v>
       </c>
       <c r="N132">
-        <v>13.172</v>
+        <v>65</v>
       </c>
     </row>
     <row r="133" spans="1:14">
@@ -6809,10 +6809,10 @@
         <v>0</v>
       </c>
       <c r="M133">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N133">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="134" spans="1:14">
@@ -6853,10 +6853,10 @@
         <v>0</v>
       </c>
       <c r="M134">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N134">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="135" spans="1:14">
@@ -6897,10 +6897,10 @@
         <v>0</v>
       </c>
       <c r="M135">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N135">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="136" spans="1:14">
@@ -6941,10 +6941,10 @@
         <v>0</v>
       </c>
       <c r="M136">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N136">
-        <v>12.8</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="137" spans="1:14">
@@ -6985,10 +6985,10 @@
         <v>0</v>
       </c>
       <c r="M137">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N137">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="138" spans="1:14">
@@ -7029,10 +7029,10 @@
         <v>0</v>
       </c>
       <c r="M138">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N138">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="139" spans="1:14">
@@ -7073,10 +7073,10 @@
         <v>0</v>
       </c>
       <c r="M139">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N139">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="140" spans="1:14">
@@ -7117,10 +7117,10 @@
         <v>0</v>
       </c>
       <c r="M140">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N140">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="141" spans="1:14">
@@ -7161,10 +7161,10 @@
         <v>0</v>
       </c>
       <c r="M141">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="N141">
-        <v>13.948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:14">
@@ -7205,10 +7205,10 @@
         <v>0</v>
       </c>
       <c r="M142">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N142">
-        <v>17.38</v>
+        <v>13.035</v>
       </c>
     </row>
     <row r="143" spans="1:14">
@@ -7249,10 +7249,10 @@
         <v>0</v>
       </c>
       <c r="M143">
-        <v>0.4</v>
+        <v>65</v>
       </c>
       <c r="N143">
-        <v>0.068</v>
+        <v>65</v>
       </c>
     </row>
     <row r="144" spans="1:14">
@@ -7293,10 +7293,10 @@
         <v>0</v>
       </c>
       <c r="M144">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N144">
-        <v>12.8</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="145" spans="1:14">
@@ -7337,10 +7337,10 @@
         <v>0</v>
       </c>
       <c r="M145">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N145">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="146" spans="1:14">
@@ -7381,10 +7381,10 @@
         <v>0</v>
       </c>
       <c r="M146">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N146">
-        <v>12.8</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="147" spans="1:14">
@@ -7425,10 +7425,10 @@
         <v>0</v>
       </c>
       <c r="M147">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N147">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="148" spans="1:14">
@@ -7469,10 +7469,10 @@
         <v>0</v>
       </c>
       <c r="M148">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N148">
-        <v>12.8</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="149" spans="1:14">
@@ -7513,10 +7513,10 @@
         <v>0</v>
       </c>
       <c r="M149">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N149">
-        <v>12.8</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="150" spans="1:14">
@@ -7557,10 +7557,10 @@
         <v>0</v>
       </c>
       <c r="M150">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N150">
-        <v>0.068</v>
+        <v>0.051</v>
       </c>
     </row>
     <row r="151" spans="1:14">
@@ -7601,10 +7601,10 @@
         <v>0</v>
       </c>
       <c r="M151">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N151">
-        <v>59.87200000000001</v>
+        <v>44.904</v>
       </c>
     </row>
     <row r="152" spans="1:14">
@@ -7645,10 +7645,10 @@
         <v>0</v>
       </c>
       <c r="M152">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N152">
-        <v>59.87200000000001</v>
+        <v>44.904</v>
       </c>
     </row>
     <row r="153" spans="1:14">
@@ -7689,10 +7689,10 @@
         <v>0</v>
       </c>
       <c r="M153">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N153">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="154" spans="1:14">
@@ -7733,10 +7733,10 @@
         <v>0</v>
       </c>
       <c r="M154">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N154">
-        <v>12.8</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="155" spans="1:14">
@@ -7777,10 +7777,10 @@
         <v>0</v>
       </c>
       <c r="M155">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N155">
-        <v>12.8</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="156" spans="1:14">
@@ -7821,10 +7821,10 @@
         <v>0</v>
       </c>
       <c r="M156">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N156">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="157" spans="1:14">
@@ -7865,10 +7865,10 @@
         <v>0</v>
       </c>
       <c r="M157">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N157">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="158" spans="1:14">
@@ -7909,10 +7909,10 @@
         <v>0</v>
       </c>
       <c r="M158">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N158">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="159" spans="1:14">
@@ -7953,10 +7953,10 @@
         <v>0</v>
       </c>
       <c r="M159">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N159">
-        <v>12.8</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="160" spans="1:14">
@@ -8041,7 +8041,7 @@
         <v>0</v>
       </c>
       <c r="M161">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N161">
         <v>0</v>
@@ -8129,7 +8129,7 @@
         <v>0</v>
       </c>
       <c r="M163">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N163">
         <v>0</v>
@@ -8305,7 +8305,7 @@
         <v>0</v>
       </c>
       <c r="M167">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N167">
         <v>0</v>
@@ -8349,7 +8349,7 @@
         <v>0</v>
       </c>
       <c r="M168">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N168">
         <v>0</v>
@@ -8437,7 +8437,7 @@
         <v>0</v>
       </c>
       <c r="M170">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N170">
         <v>0</v>
@@ -8481,7 +8481,7 @@
         <v>0</v>
       </c>
       <c r="M171">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N171">
         <v>0</v>
@@ -8525,7 +8525,7 @@
         <v>0</v>
       </c>
       <c r="M172">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N172">
         <v>0</v>
@@ -8569,7 +8569,7 @@
         <v>0</v>
       </c>
       <c r="M173">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N173">
         <v>0</v>
@@ -8613,7 +8613,7 @@
         <v>0</v>
       </c>
       <c r="M174">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N174">
         <v>0</v>
@@ -8657,7 +8657,7 @@
         <v>0</v>
       </c>
       <c r="M175">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N175">
         <v>0</v>
@@ -8833,7 +8833,7 @@
         <v>0</v>
       </c>
       <c r="M179">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N179">
         <v>0</v>
@@ -8965,7 +8965,7 @@
         <v>0</v>
       </c>
       <c r="M182">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N182">
         <v>0</v>
@@ -9097,7 +9097,7 @@
         <v>0</v>
       </c>
       <c r="M185">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N185">
         <v>0</v>
@@ -9141,7 +9141,7 @@
         <v>0</v>
       </c>
       <c r="M186">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N186">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>0</v>
       </c>
       <c r="M187">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N187">
         <v>0</v>
@@ -9537,7 +9537,7 @@
         <v>0</v>
       </c>
       <c r="M195">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N195">
         <v>0</v>
@@ -9625,7 +9625,7 @@
         <v>0</v>
       </c>
       <c r="M197">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N197">
         <v>0</v>
@@ -9669,7 +9669,7 @@
         <v>0</v>
       </c>
       <c r="M198">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N198">
         <v>0</v>
@@ -9713,7 +9713,7 @@
         <v>0</v>
       </c>
       <c r="M199">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N199">
         <v>0</v>
@@ -10417,7 +10417,7 @@
         <v>0</v>
       </c>
       <c r="M215">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N215">
         <v>0</v>
@@ -10461,7 +10461,7 @@
         <v>0</v>
       </c>
       <c r="M216">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N216">
         <v>0</v>
@@ -10549,7 +10549,7 @@
         <v>0</v>
       </c>
       <c r="M218">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N218">
         <v>0</v>
@@ -10593,7 +10593,7 @@
         <v>0</v>
       </c>
       <c r="M219">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N219">
         <v>0</v>
@@ -10901,7 +10901,7 @@
         <v>0</v>
       </c>
       <c r="M226">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N226">
         <v>0</v>
@@ -11209,7 +11209,7 @@
         <v>0</v>
       </c>
       <c r="M233">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N233">
         <v>0</v>
@@ -11825,7 +11825,7 @@
         <v>0</v>
       </c>
       <c r="M247">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="N247">
         <v>0</v>
@@ -11869,7 +11869,7 @@
         <v>0</v>
       </c>
       <c r="M248">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="N248">
         <v>0</v>
@@ -12221,7 +12221,7 @@
         <v>0</v>
       </c>
       <c r="M256">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N256">
         <v>0</v>
@@ -12353,7 +12353,7 @@
         <v>0</v>
       </c>
       <c r="M259">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N259">
         <v>0</v>
@@ -12397,7 +12397,7 @@
         <v>0</v>
       </c>
       <c r="M260">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N260">
         <v>0</v>
@@ -12529,7 +12529,7 @@
         <v>0</v>
       </c>
       <c r="M263">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N263">
         <v>0</v>
@@ -12573,7 +12573,7 @@
         <v>0</v>
       </c>
       <c r="M264">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N264">
         <v>0</v>
@@ -12881,7 +12881,7 @@
         <v>0</v>
       </c>
       <c r="M271">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N271">
         <v>0</v>
@@ -12969,7 +12969,7 @@
         <v>0</v>
       </c>
       <c r="M273">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N273">
         <v>0</v>
@@ -13013,7 +13013,7 @@
         <v>0</v>
       </c>
       <c r="M274">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N274">
         <v>0</v>
@@ -13057,7 +13057,7 @@
         <v>0</v>
       </c>
       <c r="M275">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N275">
         <v>0</v>
@@ -13409,7 +13409,7 @@
         <v>0</v>
       </c>
       <c r="M283">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N283">
         <v>0</v>
@@ -13453,7 +13453,7 @@
         <v>0</v>
       </c>
       <c r="M284">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N284">
         <v>0</v>
@@ -13629,7 +13629,7 @@
         <v>0</v>
       </c>
       <c r="M288">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N288">
         <v>0</v>
@@ -13673,7 +13673,7 @@
         <v>0</v>
       </c>
       <c r="M289">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N289">
         <v>0</v>
@@ -13717,7 +13717,7 @@
         <v>0</v>
       </c>
       <c r="M290">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N290">
         <v>0</v>
@@ -13893,7 +13893,7 @@
         <v>0</v>
       </c>
       <c r="M294">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N294">
         <v>0</v>
@@ -13937,7 +13937,7 @@
         <v>0</v>
       </c>
       <c r="M295">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N295">
         <v>0</v>
@@ -13981,7 +13981,7 @@
         <v>0</v>
       </c>
       <c r="M296">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="N296">
         <v>0</v>
@@ -14201,7 +14201,7 @@
         <v>0</v>
       </c>
       <c r="M301">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="N301">
         <v>0</v>
@@ -14641,7 +14641,7 @@
         <v>0</v>
       </c>
       <c r="M311">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N311">
         <v>0</v>
@@ -14685,7 +14685,7 @@
         <v>0</v>
       </c>
       <c r="M312">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N312">
         <v>0</v>
@@ -15169,7 +15169,7 @@
         <v>0</v>
       </c>
       <c r="M323">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N323">
         <v>0</v>
@@ -15301,7 +15301,7 @@
         <v>0</v>
       </c>
       <c r="M326">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N326">
         <v>0</v>
@@ -15345,7 +15345,7 @@
         <v>0</v>
       </c>
       <c r="M327">
-        <v>0.3</v>
+        <v>5</v>
       </c>
       <c r="N327">
         <v>0</v>
@@ -15389,7 +15389,7 @@
         <v>0</v>
       </c>
       <c r="M328">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="N328">
         <v>0</v>
@@ -15433,7 +15433,7 @@
         <v>0</v>
       </c>
       <c r="M329">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N329">
         <v>0</v>
